--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f76b59d8a1a24a1e/REEF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="8_{1DEBD1D2-28FB-4445-959D-27561C55D446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26F44C57-D080-4461-95B6-B687C44250EE}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="8_{1DEBD1D2-28FB-4445-959D-27561C55D446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43E33025-F094-4A2C-9809-D242838597FE}"/>
   <bookViews>
-    <workbookView xWindow="36" yWindow="0" windowWidth="19176" windowHeight="8736" activeTab="1" xr2:uid="{07740BBB-C32C-406A-82E2-60B6C21CE9FE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{07740BBB-C32C-406A-82E2-60B6C21CE9FE}"/>
   </bookViews>
   <sheets>
     <sheet name="中文" sheetId="1" r:id="rId1"/>
     <sheet name="English" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -279,145 +277,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Kamoer NKP Peristaltic Pump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3*5K  Silicon Tube </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>some</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maybe 5M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X4XM2.5 knurled nut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5X4XM3 knurled nut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3X10 bolt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3X45 bolt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2.5*5+6 Hexagonal copper column Single-headed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2.5*11+3 Hexagonal copper column Single-headed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2.5X5bolt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2.6X10 self-tapping screw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is recommended to buy a few more, all screws and bolts except copper are recommended to buy 304 stainless steel or above, 316 is the best</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maybe 30CM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12V3A（5.5*2.5）Power Adapter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dupont Line(female to female)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH2.0(male to female)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dupont Cable Female case and Pin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flat Needle, 18 ga,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1/2 in(12.7mm) Length（Inside Diameter: 0.033in,0.84mm）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V RC-300 DC  MOTOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.3*12.4 ,output shaft length 6mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/8Straight-through tube connector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magnetic Stirrer  PTFE Olive Cone Type A </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8X20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8X3 Rubidium magnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32G TF card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1N（0.1MOL/L）Hydrochloric acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the tester need 1.5-2.2ML for one test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12V Straight S10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NKP-DC-S10B，在卡默尔NKP下找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Qiguo Pi Stepper Motor HAT for Raspberry Pi </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12Vtwo slowdown gear B06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/2021056985.html?spm=a2g0o.productlist.0.0.76cd7e18eXeKhQ&amp;algo_pvid=ad069ced-ff5a-4fab-806f-99e3142f45e8&amp;algo_exp_id=ad069ced-ff5a-4fab-806f-99e3142f45e8-3&amp;pdp_ext_f=%7B%22sku_id%22%3A%2266540462983%22%7D&amp;pdp_pi=-1%3B15.9%3B-1%3B-1%40salePrice%3BUSD%3Bsearch-mainSearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.aliexpress.com/item/32601056500.html?spm=a2g0o.productlist.0.0.71307d23iODiRE&amp;algo_pvid=4c71c036-b4cf-4f2d-8fe9-f9d7039a0abc&amp;algo_exp_id=4c71c036-b4cf-4f2d-8fe9-f9d7039a0abc-1&amp;pdp_ext_f=%7B%22sku_id%22%3A%2266451658933%22%7D&amp;pdp_pi=-1%3B32.9%3B-1%3B-1%40salePrice%3BUSD%3Bsearch-mainSearch</t>
-  </si>
-  <si>
-    <t>Kamoer NKP Peristaltic Pump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/2021056985.html?spm=a2g0o.productlist.0.0.76cd7e18eXeKhQ&amp;algo_pvid=ad069ced-ff5a-4fab-806f-99e3142f45e8&amp;algo_exp_id=ad069ced-ff5a-4fab-806f-99e3142f45e8-3&amp;pdp_ext_f=%7B%22sku_id%22%3A%2266540462983%22%7D&amp;pdp_pi=-1%3B15.9%3B-1%3B-1%40salePrice%3BUSD%3Bsearch-mainSearch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3*5K  Silicon Tube </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>some</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maybe 5M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4X4XM2.5 knurled nut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5X4XM3 knurled nut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M3X10 bolt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M3X45 bolt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2.5*5+6 Hexagonal copper column Single-headed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2.5*11+3 Hexagonal copper column Single-headed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2.5X5bolt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2.6X10 self-tapping screw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It is recommended to buy a few more, all screws and bolts except copper are recommended to buy 304 stainless steel or above, 316 is the best</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maybe 30CM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12V3A（5.5*2.5）Power Adapter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dupont Line(female to female)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PH2.0(male to female)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dupont Cable Female case and Pin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flat Needle, 18 ga,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1/2 in(12.7mm) Length（Inside Diameter: 0.033in,0.84mm）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5V RC-300 DC  MOTOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24.3*12.4 ,output shaft length 6mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/8Straight-through tube connector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Magnetic Stirrer  PTFE Olive Cone Type A </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8X20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8X3 Rubidium magnet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32G TF card</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1N（0.1MOL/L）Hydrochloric acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>the tester need 1.5-2.2ML for one test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12V Straight S10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NKP-DC-S10B，在卡默尔NKP下找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接中没有，请联系客服购买12V二级减速配3X5BPT管（B06）型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Qiguo Pi Stepper Motor HAT for Raspberry Pi </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12Vtwo slowdown gear B06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接中没有，请联系客服购买12V二级减速（B06）型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3D7A04-493F-4649-A87C-69376C9895AF}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="A4:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H12" t="s">
         <v>18</v>
@@ -1029,7 +1029,7 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1447,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D0F038-862F-4048-82E4-31B9A37360F0}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1523,7 +1523,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1637,10 +1637,10 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" t="s">
-        <v>63</v>
+        <v>95</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1648,7 +1648,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1657,10 +1657,10 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" t="s">
-        <v>65</v>
+        <v>92</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1668,16 +1668,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1685,7 +1685,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1694,7 +1694,7 @@
         <v>20</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1702,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1717,7 +1717,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1732,7 +1732,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1747,7 +1747,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1762,7 +1762,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1777,7 +1777,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1792,7 +1792,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1807,16 +1807,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1824,7 +1824,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1838,7 +1838,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1847,7 +1847,7 @@
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1855,13 +1855,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1869,7 +1869,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1878,7 +1878,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1886,7 +1886,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1895,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1903,7 +1903,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1917,7 +1917,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1934,7 +1934,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1948,7 +1948,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -1962,7 +1962,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1971,7 +1971,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2010,7 +2010,11 @@
     <mergeCell ref="B33:E33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H13" r:id="rId1" display="https://www.aliexpress.com/item/2021056985.html?spm=a2g0o.productlist.0.0.76cd7e18eXeKhQ&amp;algo_pvid=ad069ced-ff5a-4fab-806f-99e3142f45e8&amp;algo_exp_id=ad069ced-ff5a-4fab-806f-99e3142f45e8-3&amp;pdp_ext_f=%7B%22sku_id%22%3A%2266540462983%22%7D&amp;pdp_pi=-1%3B15.9%3B-1%3B-1%40salePrice%3BUSD%3Bsearch-mainSearch" xr:uid="{DEF0FE96-5C6D-4DE2-B87B-0EC312107E63}"/>
+    <hyperlink ref="H12" r:id="rId2" display="https://www.aliexpress.com/item/32601056500.html?spm=a2g0o.productlist.0.0.71307d23iODiRE&amp;algo_pvid=4c71c036-b4cf-4f2d-8fe9-f9d7039a0abc&amp;algo_exp_id=4c71c036-b4cf-4f2d-8fe9-f9d7039a0abc-1&amp;pdp_ext_f=%7B%22sku_id%22%3A%2266451658933%22%7D&amp;pdp_pi=-1%3B32.9%3B-1%3B-1%40salePrice%3BUSD%3Bsearch-mainSearch" xr:uid="{925A4699-6313-4961-96CF-C6874506D33A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>